--- a/prep_and_checklists/Vogue  /PREP_REQ_Vogue  _Wednesday, July 16, 2025  _0.xlsx
+++ b/prep_and_checklists/Vogue  /PREP_REQ_Vogue  _Wednesday, July 16, 2025  _0.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Vogue  /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5C8B02-2D2A-E44C-BDB7-5BC0CADCA4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31723302-1B8C-6242-92F1-7B913A5C1786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="920" windowWidth="29940" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15180" yWindow="920" windowWidth="14900" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prep Req" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>EVENT PREP 07-10-2025</t>
   </si>
@@ -49,16 +62,16 @@
     <t>canape</t>
   </si>
   <si>
-    <t>2025-07-16, by 4pm</t>
-  </si>
-  <si>
     <t>fava bean hummus</t>
   </si>
   <si>
-    <t>make gougeres</t>
+    <t>1 quart</t>
   </si>
   <si>
-    <t xml:space="preserve">make and portion mini hash brown </t>
+    <t>Tuesday, July 15, by 4pm</t>
+  </si>
+  <si>
+    <t>1 x recipe</t>
   </si>
 </sst>
 </file>
@@ -198,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -224,9 +237,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -463,10 +473,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V981"/>
+  <dimension ref="A1:V979"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -483,14 +493,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -545,17 +555,19 @@
       <c r="V2" s="3"/>
     </row>
     <row r="3" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>9</v>
+      <c r="D3" s="11" t="s">
+        <v>11</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="8"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -575,17 +587,19 @@
       <c r="V3" s="3"/>
     </row>
     <row r="4" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>10</v>
+      <c r="A4" s="10" t="s">
+        <v>9</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>9</v>
+      <c r="D4" s="11" t="s">
+        <v>11</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="8"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -605,18 +619,12 @@
       <c r="V4" s="3"/>
     </row>
     <row r="5" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -635,18 +643,12 @@
       <c r="V5" s="3"/>
     </row>
     <row r="6" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="8"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -665,11 +667,11 @@
       <c r="V6" s="3"/>
     </row>
     <row r="7" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="4"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -689,12 +691,12 @@
       <c r="V7" s="3"/>
     </row>
     <row r="8" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="5"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -713,11 +715,11 @@
       <c r="V8" s="3"/>
     </row>
     <row r="9" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="4"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -737,11 +739,11 @@
       <c r="V9" s="3"/>
     </row>
     <row r="10" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="4"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -761,11 +763,11 @@
       <c r="V10" s="3"/>
     </row>
     <row r="11" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="4"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -785,12 +787,12 @@
       <c r="V11" s="3"/>
     </row>
     <row r="12" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="4"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="5"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -809,11 +811,11 @@
       <c r="V12" s="3"/>
     </row>
     <row r="13" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="4"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -833,12 +835,12 @@
       <c r="V13" s="3"/>
     </row>
     <row r="14" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="5"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -857,12 +859,12 @@
       <c r="V14" s="3"/>
     </row>
     <row r="15" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="4"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -881,12 +883,12 @@
       <c r="V15" s="3"/>
     </row>
     <row r="16" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="4"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -905,11 +907,11 @@
       <c r="V16" s="3"/>
     </row>
     <row r="17" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="5"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -929,11 +931,11 @@
       <c r="V17" s="3"/>
     </row>
     <row r="18" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
       <c r="F18" s="5"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -953,11 +955,11 @@
       <c r="V18" s="3"/>
     </row>
     <row r="19" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
       <c r="F19" s="5"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -977,12 +979,12 @@
       <c r="V19" s="3"/>
     </row>
     <row r="20" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="5"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="4"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1001,12 +1003,12 @@
       <c r="V20" s="3"/>
     </row>
     <row r="21" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="5"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="4"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -1025,11 +1027,11 @@
       <c r="V21" s="3"/>
     </row>
     <row r="22" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="4"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1049,11 +1051,11 @@
       <c r="V22" s="3"/>
     </row>
     <row r="23" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
       <c r="F23" s="4"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1073,11 +1075,11 @@
       <c r="V23" s="3"/>
     </row>
     <row r="24" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
       <c r="F24" s="4"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -1097,11 +1099,11 @@
       <c r="V24" s="3"/>
     </row>
     <row r="25" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="4"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -1121,11 +1123,11 @@
       <c r="V25" s="3"/>
     </row>
     <row r="26" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
       <c r="F26" s="4"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -1145,11 +1147,11 @@
       <c r="V26" s="3"/>
     </row>
     <row r="27" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
       <c r="F27" s="4"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -1169,11 +1171,11 @@
       <c r="V27" s="3"/>
     </row>
     <row r="28" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="4"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -1193,11 +1195,11 @@
       <c r="V28" s="3"/>
     </row>
     <row r="29" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
       <c r="F29" s="4"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -1217,11 +1219,11 @@
       <c r="V29" s="3"/>
     </row>
     <row r="30" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
       <c r="F30" s="4"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -1241,11 +1243,11 @@
       <c r="V30" s="3"/>
     </row>
     <row r="31" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
       <c r="F31" s="4"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -1265,11 +1267,11 @@
       <c r="V31" s="3"/>
     </row>
     <row r="32" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
       <c r="F32" s="4"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -1289,12 +1291,12 @@
       <c r="V32" s="3"/>
     </row>
     <row r="33" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="4"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="5"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -1313,12 +1315,12 @@
       <c r="V33" s="3"/>
     </row>
     <row r="34" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="4"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="9"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -1336,13 +1338,13 @@
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
     </row>
-    <row r="35" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="5"/>
+    <row r="35" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="9"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -1360,13 +1362,13 @@
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
     </row>
-    <row r="36" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="10"/>
+    <row r="36" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="9"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -1385,12 +1387,12 @@
       <c r="V36" s="3"/>
     </row>
     <row r="37" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="10"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="9"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -1409,12 +1411,12 @@
       <c r="V37" s="3"/>
     </row>
     <row r="38" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="10"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="9"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -1433,12 +1435,12 @@
       <c r="V38" s="3"/>
     </row>
     <row r="39" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="10"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="9"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -1457,12 +1459,12 @@
       <c r="V39" s="3"/>
     </row>
     <row r="40" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="10"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="9"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -1481,12 +1483,12 @@
       <c r="V40" s="3"/>
     </row>
     <row r="41" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="10"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="9"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -1504,222 +1506,176 @@
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
     </row>
-    <row r="42" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
-    </row>
-    <row r="43" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
+    <row r="42" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="10"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="9"/>
     </row>
     <row r="45" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="10"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="9"/>
     </row>
     <row r="46" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="10"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="9"/>
     </row>
     <row r="47" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="10"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="9"/>
     </row>
     <row r="48" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="10"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="9"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="10"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="9"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="10"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="9"/>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="10"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="9"/>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="10"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="9"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="10"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="9"/>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="10"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="9"/>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="10"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="9"/>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="10"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="9"/>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="10"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="9"/>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="10"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="9"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="10"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="9"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="10"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="9"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="10"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="9"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="10"/>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="10"/>
-    </row>
-    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="10"/>
-    </row>
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="9"/>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2635,8 +2591,6 @@
     <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
